--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-34300" yWindow="4540" windowWidth="24100" windowHeight="15940" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -302,7 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -377,6 +377,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -403,20 +417,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,7 +1003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,6 +1019,9 @@
         <is>
           <t>BVAbIC BAU Value Added by ISIC Code</t>
         </is>
+      </c>
+      <c r="C1" s="48" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1194,8 +1198,8 @@
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="43" max="45"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="46" max="46"/>
     <col width="10.1640625" bestFit="1" customWidth="1" style="6" min="47" max="47"/>
-    <col width="9.1640625" customWidth="1" style="6" min="48" max="48"/>
-    <col width="9.1640625" customWidth="1" style="6" min="49" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="6" min="48" max="49"/>
+    <col width="9.1640625" customWidth="1" style="6" min="50" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1217,240 +1221,240 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="38" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="35" t="inlineStr">
+      <c r="B3" s="39" t="n"/>
+      <c r="C3" s="43" t="inlineStr">
         <is>
           <t>TTL: Total</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="33" t="n"/>
-      <c r="O3" s="33" t="n"/>
-      <c r="P3" s="33" t="n"/>
-      <c r="Q3" s="33" t="n"/>
-      <c r="R3" s="33" t="n"/>
-      <c r="S3" s="33" t="n"/>
-      <c r="T3" s="33" t="n"/>
-      <c r="U3" s="33" t="n"/>
-      <c r="V3" s="33" t="n"/>
-      <c r="W3" s="33" t="n"/>
-      <c r="X3" s="33" t="n"/>
-      <c r="Y3" s="33" t="n"/>
-      <c r="Z3" s="33" t="n"/>
-      <c r="AA3" s="33" t="n"/>
-      <c r="AB3" s="33" t="n"/>
-      <c r="AC3" s="33" t="n"/>
-      <c r="AD3" s="33" t="n"/>
-      <c r="AE3" s="33" t="n"/>
-      <c r="AF3" s="33" t="n"/>
-      <c r="AG3" s="33" t="n"/>
-      <c r="AH3" s="33" t="n"/>
-      <c r="AI3" s="33" t="n"/>
-      <c r="AJ3" s="33" t="n"/>
-      <c r="AK3" s="33" t="n"/>
-      <c r="AL3" s="33" t="n"/>
-      <c r="AM3" s="33" t="n"/>
-      <c r="AN3" s="33" t="n"/>
-      <c r="AO3" s="33" t="n"/>
-      <c r="AP3" s="33" t="n"/>
-      <c r="AQ3" s="33" t="n"/>
-      <c r="AR3" s="33" t="n"/>
-      <c r="AS3" s="33" t="n"/>
-      <c r="AT3" s="33" t="n"/>
-      <c r="AU3" s="31" t="n"/>
+      <c r="D3" s="41" t="n"/>
+      <c r="E3" s="41" t="n"/>
+      <c r="F3" s="41" t="n"/>
+      <c r="G3" s="41" t="n"/>
+      <c r="H3" s="41" t="n"/>
+      <c r="I3" s="41" t="n"/>
+      <c r="J3" s="41" t="n"/>
+      <c r="K3" s="41" t="n"/>
+      <c r="L3" s="41" t="n"/>
+      <c r="M3" s="41" t="n"/>
+      <c r="N3" s="41" t="n"/>
+      <c r="O3" s="41" t="n"/>
+      <c r="P3" s="41" t="n"/>
+      <c r="Q3" s="41" t="n"/>
+      <c r="R3" s="41" t="n"/>
+      <c r="S3" s="41" t="n"/>
+      <c r="T3" s="41" t="n"/>
+      <c r="U3" s="41" t="n"/>
+      <c r="V3" s="41" t="n"/>
+      <c r="W3" s="41" t="n"/>
+      <c r="X3" s="41" t="n"/>
+      <c r="Y3" s="41" t="n"/>
+      <c r="Z3" s="41" t="n"/>
+      <c r="AA3" s="41" t="n"/>
+      <c r="AB3" s="41" t="n"/>
+      <c r="AC3" s="41" t="n"/>
+      <c r="AD3" s="41" t="n"/>
+      <c r="AE3" s="41" t="n"/>
+      <c r="AF3" s="41" t="n"/>
+      <c r="AG3" s="41" t="n"/>
+      <c r="AH3" s="41" t="n"/>
+      <c r="AI3" s="41" t="n"/>
+      <c r="AJ3" s="41" t="n"/>
+      <c r="AK3" s="41" t="n"/>
+      <c r="AL3" s="41" t="n"/>
+      <c r="AM3" s="41" t="n"/>
+      <c r="AN3" s="41" t="n"/>
+      <c r="AO3" s="41" t="n"/>
+      <c r="AP3" s="41" t="n"/>
+      <c r="AQ3" s="41" t="n"/>
+      <c r="AR3" s="41" t="n"/>
+      <c r="AS3" s="41" t="n"/>
+      <c r="AT3" s="41" t="n"/>
+      <c r="AU3" s="39" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="38" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="B4" s="39" t="n"/>
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="33" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="33" t="n"/>
-      <c r="H4" s="33" t="n"/>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="n"/>
-      <c r="K4" s="33" t="n"/>
-      <c r="L4" s="33" t="n"/>
-      <c r="M4" s="33" t="n"/>
-      <c r="N4" s="33" t="n"/>
-      <c r="O4" s="33" t="n"/>
-      <c r="P4" s="33" t="n"/>
-      <c r="Q4" s="33" t="n"/>
-      <c r="R4" s="33" t="n"/>
-      <c r="S4" s="33" t="n"/>
-      <c r="T4" s="33" t="n"/>
-      <c r="U4" s="33" t="n"/>
-      <c r="V4" s="33" t="n"/>
-      <c r="W4" s="33" t="n"/>
-      <c r="X4" s="33" t="n"/>
-      <c r="Y4" s="33" t="n"/>
-      <c r="Z4" s="33" t="n"/>
-      <c r="AA4" s="33" t="n"/>
-      <c r="AB4" s="33" t="n"/>
-      <c r="AC4" s="33" t="n"/>
-      <c r="AD4" s="33" t="n"/>
-      <c r="AE4" s="33" t="n"/>
-      <c r="AF4" s="33" t="n"/>
-      <c r="AG4" s="33" t="n"/>
-      <c r="AH4" s="33" t="n"/>
-      <c r="AI4" s="33" t="n"/>
-      <c r="AJ4" s="33" t="n"/>
-      <c r="AK4" s="33" t="n"/>
-      <c r="AL4" s="33" t="n"/>
-      <c r="AM4" s="33" t="n"/>
-      <c r="AN4" s="33" t="n"/>
-      <c r="AO4" s="33" t="n"/>
-      <c r="AP4" s="33" t="n"/>
-      <c r="AQ4" s="33" t="n"/>
-      <c r="AR4" s="33" t="n"/>
-      <c r="AS4" s="33" t="n"/>
-      <c r="AT4" s="33" t="n"/>
-      <c r="AU4" s="31" t="n"/>
+      <c r="D4" s="41" t="n"/>
+      <c r="E4" s="41" t="n"/>
+      <c r="F4" s="41" t="n"/>
+      <c r="G4" s="41" t="n"/>
+      <c r="H4" s="41" t="n"/>
+      <c r="I4" s="41" t="n"/>
+      <c r="J4" s="41" t="n"/>
+      <c r="K4" s="41" t="n"/>
+      <c r="L4" s="41" t="n"/>
+      <c r="M4" s="41" t="n"/>
+      <c r="N4" s="41" t="n"/>
+      <c r="O4" s="41" t="n"/>
+      <c r="P4" s="41" t="n"/>
+      <c r="Q4" s="41" t="n"/>
+      <c r="R4" s="41" t="n"/>
+      <c r="S4" s="41" t="n"/>
+      <c r="T4" s="41" t="n"/>
+      <c r="U4" s="41" t="n"/>
+      <c r="V4" s="41" t="n"/>
+      <c r="W4" s="41" t="n"/>
+      <c r="X4" s="41" t="n"/>
+      <c r="Y4" s="41" t="n"/>
+      <c r="Z4" s="41" t="n"/>
+      <c r="AA4" s="41" t="n"/>
+      <c r="AB4" s="41" t="n"/>
+      <c r="AC4" s="41" t="n"/>
+      <c r="AD4" s="41" t="n"/>
+      <c r="AE4" s="41" t="n"/>
+      <c r="AF4" s="41" t="n"/>
+      <c r="AG4" s="41" t="n"/>
+      <c r="AH4" s="41" t="n"/>
+      <c r="AI4" s="41" t="n"/>
+      <c r="AJ4" s="41" t="n"/>
+      <c r="AK4" s="41" t="n"/>
+      <c r="AL4" s="41" t="n"/>
+      <c r="AM4" s="41" t="n"/>
+      <c r="AN4" s="41" t="n"/>
+      <c r="AO4" s="41" t="n"/>
+      <c r="AP4" s="41" t="n"/>
+      <c r="AQ4" s="41" t="n"/>
+      <c r="AR4" s="41" t="n"/>
+      <c r="AS4" s="41" t="n"/>
+      <c r="AT4" s="41" t="n"/>
+      <c r="AU4" s="39" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="38" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="32" t="inlineStr">
+      <c r="B5" s="39" t="n"/>
+      <c r="C5" s="40" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="33" t="n"/>
-      <c r="N5" s="33" t="n"/>
-      <c r="O5" s="33" t="n"/>
-      <c r="P5" s="33" t="n"/>
-      <c r="Q5" s="33" t="n"/>
-      <c r="R5" s="33" t="n"/>
-      <c r="S5" s="33" t="n"/>
-      <c r="T5" s="33" t="n"/>
-      <c r="U5" s="33" t="n"/>
-      <c r="V5" s="33" t="n"/>
-      <c r="W5" s="33" t="n"/>
-      <c r="X5" s="33" t="n"/>
-      <c r="Y5" s="33" t="n"/>
-      <c r="Z5" s="33" t="n"/>
-      <c r="AA5" s="33" t="n"/>
-      <c r="AB5" s="33" t="n"/>
-      <c r="AC5" s="33" t="n"/>
-      <c r="AD5" s="33" t="n"/>
-      <c r="AE5" s="33" t="n"/>
-      <c r="AF5" s="33" t="n"/>
-      <c r="AG5" s="33" t="n"/>
-      <c r="AH5" s="33" t="n"/>
-      <c r="AI5" s="33" t="n"/>
-      <c r="AJ5" s="33" t="n"/>
-      <c r="AK5" s="33" t="n"/>
-      <c r="AL5" s="33" t="n"/>
-      <c r="AM5" s="33" t="n"/>
-      <c r="AN5" s="33" t="n"/>
-      <c r="AO5" s="33" t="n"/>
-      <c r="AP5" s="33" t="n"/>
-      <c r="AQ5" s="33" t="n"/>
-      <c r="AR5" s="33" t="n"/>
-      <c r="AS5" s="33" t="n"/>
-      <c r="AT5" s="33" t="n"/>
-      <c r="AU5" s="31" t="n"/>
+      <c r="D5" s="41" t="n"/>
+      <c r="E5" s="41" t="n"/>
+      <c r="F5" s="41" t="n"/>
+      <c r="G5" s="41" t="n"/>
+      <c r="H5" s="41" t="n"/>
+      <c r="I5" s="41" t="n"/>
+      <c r="J5" s="41" t="n"/>
+      <c r="K5" s="41" t="n"/>
+      <c r="L5" s="41" t="n"/>
+      <c r="M5" s="41" t="n"/>
+      <c r="N5" s="41" t="n"/>
+      <c r="O5" s="41" t="n"/>
+      <c r="P5" s="41" t="n"/>
+      <c r="Q5" s="41" t="n"/>
+      <c r="R5" s="41" t="n"/>
+      <c r="S5" s="41" t="n"/>
+      <c r="T5" s="41" t="n"/>
+      <c r="U5" s="41" t="n"/>
+      <c r="V5" s="41" t="n"/>
+      <c r="W5" s="41" t="n"/>
+      <c r="X5" s="41" t="n"/>
+      <c r="Y5" s="41" t="n"/>
+      <c r="Z5" s="41" t="n"/>
+      <c r="AA5" s="41" t="n"/>
+      <c r="AB5" s="41" t="n"/>
+      <c r="AC5" s="41" t="n"/>
+      <c r="AD5" s="41" t="n"/>
+      <c r="AE5" s="41" t="n"/>
+      <c r="AF5" s="41" t="n"/>
+      <c r="AG5" s="41" t="n"/>
+      <c r="AH5" s="41" t="n"/>
+      <c r="AI5" s="41" t="n"/>
+      <c r="AJ5" s="41" t="n"/>
+      <c r="AK5" s="41" t="n"/>
+      <c r="AL5" s="41" t="n"/>
+      <c r="AM5" s="41" t="n"/>
+      <c r="AN5" s="41" t="n"/>
+      <c r="AO5" s="41" t="n"/>
+      <c r="AP5" s="41" t="n"/>
+      <c r="AQ5" s="41" t="n"/>
+      <c r="AR5" s="41" t="n"/>
+      <c r="AS5" s="41" t="n"/>
+      <c r="AT5" s="41" t="n"/>
+      <c r="AU5" s="39" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="38" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="B6" s="39" t="n"/>
+      <c r="C6" s="40" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="33" t="n"/>
-      <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
-      <c r="H6" s="33" t="n"/>
-      <c r="I6" s="33" t="n"/>
-      <c r="J6" s="33" t="n"/>
-      <c r="K6" s="33" t="n"/>
-      <c r="L6" s="33" t="n"/>
-      <c r="M6" s="33" t="n"/>
-      <c r="N6" s="33" t="n"/>
-      <c r="O6" s="33" t="n"/>
-      <c r="P6" s="33" t="n"/>
-      <c r="Q6" s="33" t="n"/>
-      <c r="R6" s="33" t="n"/>
-      <c r="S6" s="33" t="n"/>
-      <c r="T6" s="33" t="n"/>
-      <c r="U6" s="33" t="n"/>
-      <c r="V6" s="33" t="n"/>
-      <c r="W6" s="33" t="n"/>
-      <c r="X6" s="33" t="n"/>
-      <c r="Y6" s="33" t="n"/>
-      <c r="Z6" s="33" t="n"/>
-      <c r="AA6" s="33" t="n"/>
-      <c r="AB6" s="33" t="n"/>
-      <c r="AC6" s="33" t="n"/>
-      <c r="AD6" s="33" t="n"/>
-      <c r="AE6" s="33" t="n"/>
-      <c r="AF6" s="33" t="n"/>
-      <c r="AG6" s="33" t="n"/>
-      <c r="AH6" s="33" t="n"/>
-      <c r="AI6" s="33" t="n"/>
-      <c r="AJ6" s="33" t="n"/>
-      <c r="AK6" s="33" t="n"/>
-      <c r="AL6" s="33" t="n"/>
-      <c r="AM6" s="33" t="n"/>
-      <c r="AN6" s="33" t="n"/>
-      <c r="AO6" s="33" t="n"/>
-      <c r="AP6" s="33" t="n"/>
-      <c r="AQ6" s="33" t="n"/>
-      <c r="AR6" s="33" t="n"/>
-      <c r="AS6" s="33" t="n"/>
-      <c r="AT6" s="33" t="n"/>
-      <c r="AU6" s="31" t="n"/>
+      <c r="D6" s="41" t="n"/>
+      <c r="E6" s="41" t="n"/>
+      <c r="F6" s="41" t="n"/>
+      <c r="G6" s="41" t="n"/>
+      <c r="H6" s="41" t="n"/>
+      <c r="I6" s="41" t="n"/>
+      <c r="J6" s="41" t="n"/>
+      <c r="K6" s="41" t="n"/>
+      <c r="L6" s="41" t="n"/>
+      <c r="M6" s="41" t="n"/>
+      <c r="N6" s="41" t="n"/>
+      <c r="O6" s="41" t="n"/>
+      <c r="P6" s="41" t="n"/>
+      <c r="Q6" s="41" t="n"/>
+      <c r="R6" s="41" t="n"/>
+      <c r="S6" s="41" t="n"/>
+      <c r="T6" s="41" t="n"/>
+      <c r="U6" s="41" t="n"/>
+      <c r="V6" s="41" t="n"/>
+      <c r="W6" s="41" t="n"/>
+      <c r="X6" s="41" t="n"/>
+      <c r="Y6" s="41" t="n"/>
+      <c r="Z6" s="41" t="n"/>
+      <c r="AA6" s="41" t="n"/>
+      <c r="AB6" s="41" t="n"/>
+      <c r="AC6" s="41" t="n"/>
+      <c r="AD6" s="41" t="n"/>
+      <c r="AE6" s="41" t="n"/>
+      <c r="AF6" s="41" t="n"/>
+      <c r="AG6" s="41" t="n"/>
+      <c r="AH6" s="41" t="n"/>
+      <c r="AI6" s="41" t="n"/>
+      <c r="AJ6" s="41" t="n"/>
+      <c r="AK6" s="41" t="n"/>
+      <c r="AL6" s="41" t="n"/>
+      <c r="AM6" s="41" t="n"/>
+      <c r="AN6" s="41" t="n"/>
+      <c r="AO6" s="41" t="n"/>
+      <c r="AP6" s="41" t="n"/>
+      <c r="AQ6" s="41" t="n"/>
+      <c r="AR6" s="41" t="n"/>
+      <c r="AS6" s="41" t="n"/>
+      <c r="AT6" s="41" t="n"/>
+      <c r="AU6" s="39" t="n"/>
     </row>
     <row r="7" ht="126" customHeight="1">
-      <c r="A7" s="34" t="inlineStr">
+      <c r="A7" s="42" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="31" t="n"/>
+      <c r="B7" s="39" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -7660,80 +7664,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="45" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="B3" s="39" t="n"/>
+      <c r="C3" s="46" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="31" t="n"/>
+      <c r="D3" s="41" t="n"/>
+      <c r="E3" s="41" t="n"/>
+      <c r="F3" s="41" t="n"/>
+      <c r="G3" s="41" t="n"/>
+      <c r="H3" s="41" t="n"/>
+      <c r="I3" s="41" t="n"/>
+      <c r="J3" s="41" t="n"/>
+      <c r="K3" s="41" t="n"/>
+      <c r="L3" s="41" t="n"/>
+      <c r="M3" s="41" t="n"/>
+      <c r="N3" s="39" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="44" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="39" t="inlineStr">
+      <c r="B4" s="39" t="n"/>
+      <c r="C4" s="47" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="31" t="n"/>
-      <c r="E4" s="39" t="inlineStr">
+      <c r="D4" s="39" t="n"/>
+      <c r="E4" s="47" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="31" t="n"/>
-      <c r="G4" s="39" t="inlineStr">
+      <c r="F4" s="39" t="n"/>
+      <c r="G4" s="47" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="31" t="n"/>
-      <c r="I4" s="39" t="inlineStr">
+      <c r="H4" s="39" t="n"/>
+      <c r="I4" s="47" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="31" t="n"/>
-      <c r="K4" s="39" t="inlineStr">
+      <c r="J4" s="39" t="n"/>
+      <c r="K4" s="47" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="31" t="n"/>
-      <c r="M4" s="39" t="inlineStr">
+      <c r="L4" s="39" t="n"/>
+      <c r="M4" s="47" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="31" t="n"/>
+      <c r="N4" s="39" t="n"/>
     </row>
     <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="44" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
+      <c r="B5" s="39" t="n"/>
       <c r="C5" s="20" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -9059,12 +9063,12 @@
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="40" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="31" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
@@ -9104,12 +9108,12 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="40" t="inlineStr">
+      <c r="L1" s="30" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="41" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
@@ -9119,22 +9123,22 @@
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="40" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="41" t="inlineStr">
+      <c r="P1" s="31" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="40" t="inlineStr">
+      <c r="Q1" s="30" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="41" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
@@ -9174,17 +9178,17 @@
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="40" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="42" t="inlineStr">
+      <c r="AA1" s="32" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
       </c>
-      <c r="AB1" s="41" t="inlineStr">
+      <c r="AB1" s="31" t="inlineStr">
         <is>
           <t>ISIC 36T39</t>
         </is>
@@ -9272,127 +9276,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1090114343.80115</v>
-      </c>
-      <c r="C2" s="43" t="n">
-        <v>12594798.86903981</v>
-      </c>
-      <c r="D2" s="44" t="n">
-        <v>175212211.843304</v>
+        <v>51107997.97534391</v>
+      </c>
+      <c r="C2" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34" t="n">
+        <v>35916454.70119575</v>
       </c>
       <c r="E2" t="n">
-        <v>3255542432.442901</v>
+        <v>29048025.70208031</v>
       </c>
       <c r="F2" t="n">
-        <v>48104202.04305693</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>557388680.6885448</v>
+        <v>68024849.52207951</v>
       </c>
       <c r="H2" t="n">
-        <v>49288544.29959963</v>
+        <v>60851264.43350172</v>
       </c>
       <c r="I2" t="n">
-        <v>94958047.23839656</v>
+        <v>19276969.30830621</v>
       </c>
       <c r="J2" t="n">
-        <v>269142618.6349648</v>
+        <v>77836828.10845187</v>
       </c>
       <c r="K2" t="n">
-        <v>42137779.28278103</v>
-      </c>
-      <c r="L2" s="45" t="n">
-        <v>229078769.9103015</v>
-      </c>
-      <c r="M2" s="46" t="n">
-        <v>251901215.2876197</v>
+        <v>17826242.85364691</v>
+      </c>
+      <c r="L2" s="35" t="n">
+        <v>200871387.2039388</v>
+      </c>
+      <c r="M2" s="36" t="n">
+        <v>138380288.6462177</v>
       </c>
       <c r="N2" t="n">
-        <v>190249006.8749648</v>
-      </c>
-      <c r="O2" s="45" t="n">
-        <v>64680710.69818592</v>
-      </c>
-      <c r="P2" s="46" t="n">
-        <v>331360886.9741151</v>
-      </c>
-      <c r="Q2" s="45" t="n">
-        <v>31842839.01167476</v>
-      </c>
-      <c r="R2" s="46" t="n">
-        <v>139928349.1344976</v>
+        <v>103730159.4493967</v>
+      </c>
+      <c r="O2" s="35" t="n">
+        <v>4867105.634233359</v>
+      </c>
+      <c r="P2" s="36" t="n">
+        <v>25400207.52865535</v>
+      </c>
+      <c r="Q2" s="35" t="n">
+        <v>40884591.971478</v>
+      </c>
+      <c r="R2" s="36" t="n">
+        <v>40884591.971478</v>
       </c>
       <c r="S2" t="n">
-        <v>778057956.7376559</v>
+        <v>125931779.3041046</v>
       </c>
       <c r="T2" t="n">
-        <v>5827633075.670219</v>
+        <v>397063397.9073437</v>
       </c>
       <c r="U2" t="n">
-        <v>243964896.4912127</v>
+        <v>92498538.95401429</v>
       </c>
       <c r="V2" t="n">
-        <v>319157183.8816883</v>
+        <v>117636535.5139407</v>
       </c>
       <c r="W2" t="n">
-        <v>178935401.8006543</v>
+        <v>6763966.310105043</v>
       </c>
       <c r="X2" t="n">
-        <v>2833129339.761934</v>
+        <v>309679791.4527722</v>
       </c>
       <c r="Y2" t="n">
-        <v>705643649.9107692</v>
-      </c>
-      <c r="Z2" s="45" t="n">
-        <v>3490404960.796055</v>
-      </c>
-      <c r="AA2" s="47" t="n">
-        <v>466220740.5761507</v>
-      </c>
-      <c r="AB2" s="46" t="n">
-        <v>626162398.423647</v>
+        <v>357916043.8183768</v>
+      </c>
+      <c r="Z2" s="35" t="n">
+        <v>445684772.781725</v>
+      </c>
+      <c r="AA2" s="37" t="n">
+        <v>70133136.83367248</v>
+      </c>
+      <c r="AB2" s="36" t="n">
+        <v>72395496.08637156</v>
       </c>
       <c r="AC2" t="n">
-        <v>8270494399.5669</v>
+        <v>1250191013.88802</v>
       </c>
       <c r="AD2" t="n">
-        <v>26977067072.21847</v>
+        <v>4238245021.151394</v>
       </c>
       <c r="AE2" t="n">
-        <v>5559041431.652669</v>
+        <v>498149727.0024258</v>
       </c>
       <c r="AF2" t="n">
-        <v>6506274261.224932</v>
+        <v>1175854958.442345</v>
       </c>
       <c r="AG2" t="n">
-        <v>1534724123.646729</v>
+        <v>269988940.0668104</v>
       </c>
       <c r="AH2" t="n">
-        <v>2596307030.06843</v>
+        <v>339269706.8600835</v>
       </c>
       <c r="AI2" t="n">
-        <v>2060953891.195604</v>
+        <v>211041891.4975632</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13310270145.78441</v>
+        <v>3472558156.626424</v>
       </c>
       <c r="AK2" t="n">
-        <v>38009152031.36634</v>
+        <v>6200560418.639153</v>
       </c>
       <c r="AL2" t="n">
-        <v>27660719882.16564</v>
+        <v>5468756796.72394</v>
       </c>
       <c r="AM2" t="n">
-        <v>26693101326.04037</v>
+        <v>4922753514.92254</v>
       </c>
       <c r="AN2" t="n">
-        <v>2979869199.830019</v>
+        <v>1457730522.821989</v>
       </c>
       <c r="AO2" t="n">
-        <v>17162765124.30284</v>
+        <v>3550560848.563526</v>
       </c>
       <c r="AP2" t="n">
-        <v>2192655915.132651</v>
+        <v>431143245.0026617</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -391,6 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -417,7 +418,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,7 +1020,7 @@
           <t>BVAbIC BAU Value Added by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="n">
+      <c r="C1" s="38" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1221,240 +1221,240 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="38" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="43" t="inlineStr">
+      <c r="B3" s="40" t="n"/>
+      <c r="C3" s="44" t="inlineStr">
         <is>
           <t>TTL: Total</t>
         </is>
       </c>
-      <c r="D3" s="41" t="n"/>
-      <c r="E3" s="41" t="n"/>
-      <c r="F3" s="41" t="n"/>
-      <c r="G3" s="41" t="n"/>
-      <c r="H3" s="41" t="n"/>
-      <c r="I3" s="41" t="n"/>
-      <c r="J3" s="41" t="n"/>
-      <c r="K3" s="41" t="n"/>
-      <c r="L3" s="41" t="n"/>
-      <c r="M3" s="41" t="n"/>
-      <c r="N3" s="41" t="n"/>
-      <c r="O3" s="41" t="n"/>
-      <c r="P3" s="41" t="n"/>
-      <c r="Q3" s="41" t="n"/>
-      <c r="R3" s="41" t="n"/>
-      <c r="S3" s="41" t="n"/>
-      <c r="T3" s="41" t="n"/>
-      <c r="U3" s="41" t="n"/>
-      <c r="V3" s="41" t="n"/>
-      <c r="W3" s="41" t="n"/>
-      <c r="X3" s="41" t="n"/>
-      <c r="Y3" s="41" t="n"/>
-      <c r="Z3" s="41" t="n"/>
-      <c r="AA3" s="41" t="n"/>
-      <c r="AB3" s="41" t="n"/>
-      <c r="AC3" s="41" t="n"/>
-      <c r="AD3" s="41" t="n"/>
-      <c r="AE3" s="41" t="n"/>
-      <c r="AF3" s="41" t="n"/>
-      <c r="AG3" s="41" t="n"/>
-      <c r="AH3" s="41" t="n"/>
-      <c r="AI3" s="41" t="n"/>
-      <c r="AJ3" s="41" t="n"/>
-      <c r="AK3" s="41" t="n"/>
-      <c r="AL3" s="41" t="n"/>
-      <c r="AM3" s="41" t="n"/>
-      <c r="AN3" s="41" t="n"/>
-      <c r="AO3" s="41" t="n"/>
-      <c r="AP3" s="41" t="n"/>
-      <c r="AQ3" s="41" t="n"/>
-      <c r="AR3" s="41" t="n"/>
-      <c r="AS3" s="41" t="n"/>
-      <c r="AT3" s="41" t="n"/>
-      <c r="AU3" s="39" t="n"/>
+      <c r="D3" s="42" t="n"/>
+      <c r="E3" s="42" t="n"/>
+      <c r="F3" s="42" t="n"/>
+      <c r="G3" s="42" t="n"/>
+      <c r="H3" s="42" t="n"/>
+      <c r="I3" s="42" t="n"/>
+      <c r="J3" s="42" t="n"/>
+      <c r="K3" s="42" t="n"/>
+      <c r="L3" s="42" t="n"/>
+      <c r="M3" s="42" t="n"/>
+      <c r="N3" s="42" t="n"/>
+      <c r="O3" s="42" t="n"/>
+      <c r="P3" s="42" t="n"/>
+      <c r="Q3" s="42" t="n"/>
+      <c r="R3" s="42" t="n"/>
+      <c r="S3" s="42" t="n"/>
+      <c r="T3" s="42" t="n"/>
+      <c r="U3" s="42" t="n"/>
+      <c r="V3" s="42" t="n"/>
+      <c r="W3" s="42" t="n"/>
+      <c r="X3" s="42" t="n"/>
+      <c r="Y3" s="42" t="n"/>
+      <c r="Z3" s="42" t="n"/>
+      <c r="AA3" s="42" t="n"/>
+      <c r="AB3" s="42" t="n"/>
+      <c r="AC3" s="42" t="n"/>
+      <c r="AD3" s="42" t="n"/>
+      <c r="AE3" s="42" t="n"/>
+      <c r="AF3" s="42" t="n"/>
+      <c r="AG3" s="42" t="n"/>
+      <c r="AH3" s="42" t="n"/>
+      <c r="AI3" s="42" t="n"/>
+      <c r="AJ3" s="42" t="n"/>
+      <c r="AK3" s="42" t="n"/>
+      <c r="AL3" s="42" t="n"/>
+      <c r="AM3" s="42" t="n"/>
+      <c r="AN3" s="42" t="n"/>
+      <c r="AO3" s="42" t="n"/>
+      <c r="AP3" s="42" t="n"/>
+      <c r="AQ3" s="42" t="n"/>
+      <c r="AR3" s="42" t="n"/>
+      <c r="AS3" s="42" t="n"/>
+      <c r="AT3" s="42" t="n"/>
+      <c r="AU3" s="40" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="38" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="B4" s="40" t="n"/>
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="41" t="n"/>
-      <c r="E4" s="41" t="n"/>
-      <c r="F4" s="41" t="n"/>
-      <c r="G4" s="41" t="n"/>
-      <c r="H4" s="41" t="n"/>
-      <c r="I4" s="41" t="n"/>
-      <c r="J4" s="41" t="n"/>
-      <c r="K4" s="41" t="n"/>
-      <c r="L4" s="41" t="n"/>
-      <c r="M4" s="41" t="n"/>
-      <c r="N4" s="41" t="n"/>
-      <c r="O4" s="41" t="n"/>
-      <c r="P4" s="41" t="n"/>
-      <c r="Q4" s="41" t="n"/>
-      <c r="R4" s="41" t="n"/>
-      <c r="S4" s="41" t="n"/>
-      <c r="T4" s="41" t="n"/>
-      <c r="U4" s="41" t="n"/>
-      <c r="V4" s="41" t="n"/>
-      <c r="W4" s="41" t="n"/>
-      <c r="X4" s="41" t="n"/>
-      <c r="Y4" s="41" t="n"/>
-      <c r="Z4" s="41" t="n"/>
-      <c r="AA4" s="41" t="n"/>
-      <c r="AB4" s="41" t="n"/>
-      <c r="AC4" s="41" t="n"/>
-      <c r="AD4" s="41" t="n"/>
-      <c r="AE4" s="41" t="n"/>
-      <c r="AF4" s="41" t="n"/>
-      <c r="AG4" s="41" t="n"/>
-      <c r="AH4" s="41" t="n"/>
-      <c r="AI4" s="41" t="n"/>
-      <c r="AJ4" s="41" t="n"/>
-      <c r="AK4" s="41" t="n"/>
-      <c r="AL4" s="41" t="n"/>
-      <c r="AM4" s="41" t="n"/>
-      <c r="AN4" s="41" t="n"/>
-      <c r="AO4" s="41" t="n"/>
-      <c r="AP4" s="41" t="n"/>
-      <c r="AQ4" s="41" t="n"/>
-      <c r="AR4" s="41" t="n"/>
-      <c r="AS4" s="41" t="n"/>
-      <c r="AT4" s="41" t="n"/>
-      <c r="AU4" s="39" t="n"/>
+      <c r="D4" s="42" t="n"/>
+      <c r="E4" s="42" t="n"/>
+      <c r="F4" s="42" t="n"/>
+      <c r="G4" s="42" t="n"/>
+      <c r="H4" s="42" t="n"/>
+      <c r="I4" s="42" t="n"/>
+      <c r="J4" s="42" t="n"/>
+      <c r="K4" s="42" t="n"/>
+      <c r="L4" s="42" t="n"/>
+      <c r="M4" s="42" t="n"/>
+      <c r="N4" s="42" t="n"/>
+      <c r="O4" s="42" t="n"/>
+      <c r="P4" s="42" t="n"/>
+      <c r="Q4" s="42" t="n"/>
+      <c r="R4" s="42" t="n"/>
+      <c r="S4" s="42" t="n"/>
+      <c r="T4" s="42" t="n"/>
+      <c r="U4" s="42" t="n"/>
+      <c r="V4" s="42" t="n"/>
+      <c r="W4" s="42" t="n"/>
+      <c r="X4" s="42" t="n"/>
+      <c r="Y4" s="42" t="n"/>
+      <c r="Z4" s="42" t="n"/>
+      <c r="AA4" s="42" t="n"/>
+      <c r="AB4" s="42" t="n"/>
+      <c r="AC4" s="42" t="n"/>
+      <c r="AD4" s="42" t="n"/>
+      <c r="AE4" s="42" t="n"/>
+      <c r="AF4" s="42" t="n"/>
+      <c r="AG4" s="42" t="n"/>
+      <c r="AH4" s="42" t="n"/>
+      <c r="AI4" s="42" t="n"/>
+      <c r="AJ4" s="42" t="n"/>
+      <c r="AK4" s="42" t="n"/>
+      <c r="AL4" s="42" t="n"/>
+      <c r="AM4" s="42" t="n"/>
+      <c r="AN4" s="42" t="n"/>
+      <c r="AO4" s="42" t="n"/>
+      <c r="AP4" s="42" t="n"/>
+      <c r="AQ4" s="42" t="n"/>
+      <c r="AR4" s="42" t="n"/>
+      <c r="AS4" s="42" t="n"/>
+      <c r="AT4" s="42" t="n"/>
+      <c r="AU4" s="40" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="38" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
-      <c r="C5" s="40" t="inlineStr">
+      <c r="B5" s="40" t="n"/>
+      <c r="C5" s="41" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="41" t="n"/>
-      <c r="E5" s="41" t="n"/>
-      <c r="F5" s="41" t="n"/>
-      <c r="G5" s="41" t="n"/>
-      <c r="H5" s="41" t="n"/>
-      <c r="I5" s="41" t="n"/>
-      <c r="J5" s="41" t="n"/>
-      <c r="K5" s="41" t="n"/>
-      <c r="L5" s="41" t="n"/>
-      <c r="M5" s="41" t="n"/>
-      <c r="N5" s="41" t="n"/>
-      <c r="O5" s="41" t="n"/>
-      <c r="P5" s="41" t="n"/>
-      <c r="Q5" s="41" t="n"/>
-      <c r="R5" s="41" t="n"/>
-      <c r="S5" s="41" t="n"/>
-      <c r="T5" s="41" t="n"/>
-      <c r="U5" s="41" t="n"/>
-      <c r="V5" s="41" t="n"/>
-      <c r="W5" s="41" t="n"/>
-      <c r="X5" s="41" t="n"/>
-      <c r="Y5" s="41" t="n"/>
-      <c r="Z5" s="41" t="n"/>
-      <c r="AA5" s="41" t="n"/>
-      <c r="AB5" s="41" t="n"/>
-      <c r="AC5" s="41" t="n"/>
-      <c r="AD5" s="41" t="n"/>
-      <c r="AE5" s="41" t="n"/>
-      <c r="AF5" s="41" t="n"/>
-      <c r="AG5" s="41" t="n"/>
-      <c r="AH5" s="41" t="n"/>
-      <c r="AI5" s="41" t="n"/>
-      <c r="AJ5" s="41" t="n"/>
-      <c r="AK5" s="41" t="n"/>
-      <c r="AL5" s="41" t="n"/>
-      <c r="AM5" s="41" t="n"/>
-      <c r="AN5" s="41" t="n"/>
-      <c r="AO5" s="41" t="n"/>
-      <c r="AP5" s="41" t="n"/>
-      <c r="AQ5" s="41" t="n"/>
-      <c r="AR5" s="41" t="n"/>
-      <c r="AS5" s="41" t="n"/>
-      <c r="AT5" s="41" t="n"/>
-      <c r="AU5" s="39" t="n"/>
+      <c r="D5" s="42" t="n"/>
+      <c r="E5" s="42" t="n"/>
+      <c r="F5" s="42" t="n"/>
+      <c r="G5" s="42" t="n"/>
+      <c r="H5" s="42" t="n"/>
+      <c r="I5" s="42" t="n"/>
+      <c r="J5" s="42" t="n"/>
+      <c r="K5" s="42" t="n"/>
+      <c r="L5" s="42" t="n"/>
+      <c r="M5" s="42" t="n"/>
+      <c r="N5" s="42" t="n"/>
+      <c r="O5" s="42" t="n"/>
+      <c r="P5" s="42" t="n"/>
+      <c r="Q5" s="42" t="n"/>
+      <c r="R5" s="42" t="n"/>
+      <c r="S5" s="42" t="n"/>
+      <c r="T5" s="42" t="n"/>
+      <c r="U5" s="42" t="n"/>
+      <c r="V5" s="42" t="n"/>
+      <c r="W5" s="42" t="n"/>
+      <c r="X5" s="42" t="n"/>
+      <c r="Y5" s="42" t="n"/>
+      <c r="Z5" s="42" t="n"/>
+      <c r="AA5" s="42" t="n"/>
+      <c r="AB5" s="42" t="n"/>
+      <c r="AC5" s="42" t="n"/>
+      <c r="AD5" s="42" t="n"/>
+      <c r="AE5" s="42" t="n"/>
+      <c r="AF5" s="42" t="n"/>
+      <c r="AG5" s="42" t="n"/>
+      <c r="AH5" s="42" t="n"/>
+      <c r="AI5" s="42" t="n"/>
+      <c r="AJ5" s="42" t="n"/>
+      <c r="AK5" s="42" t="n"/>
+      <c r="AL5" s="42" t="n"/>
+      <c r="AM5" s="42" t="n"/>
+      <c r="AN5" s="42" t="n"/>
+      <c r="AO5" s="42" t="n"/>
+      <c r="AP5" s="42" t="n"/>
+      <c r="AQ5" s="42" t="n"/>
+      <c r="AR5" s="42" t="n"/>
+      <c r="AS5" s="42" t="n"/>
+      <c r="AT5" s="42" t="n"/>
+      <c r="AU5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="38" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="39" t="n"/>
-      <c r="C6" s="40" t="inlineStr">
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="41" t="n"/>
-      <c r="E6" s="41" t="n"/>
-      <c r="F6" s="41" t="n"/>
-      <c r="G6" s="41" t="n"/>
-      <c r="H6" s="41" t="n"/>
-      <c r="I6" s="41" t="n"/>
-      <c r="J6" s="41" t="n"/>
-      <c r="K6" s="41" t="n"/>
-      <c r="L6" s="41" t="n"/>
-      <c r="M6" s="41" t="n"/>
-      <c r="N6" s="41" t="n"/>
-      <c r="O6" s="41" t="n"/>
-      <c r="P6" s="41" t="n"/>
-      <c r="Q6" s="41" t="n"/>
-      <c r="R6" s="41" t="n"/>
-      <c r="S6" s="41" t="n"/>
-      <c r="T6" s="41" t="n"/>
-      <c r="U6" s="41" t="n"/>
-      <c r="V6" s="41" t="n"/>
-      <c r="W6" s="41" t="n"/>
-      <c r="X6" s="41" t="n"/>
-      <c r="Y6" s="41" t="n"/>
-      <c r="Z6" s="41" t="n"/>
-      <c r="AA6" s="41" t="n"/>
-      <c r="AB6" s="41" t="n"/>
-      <c r="AC6" s="41" t="n"/>
-      <c r="AD6" s="41" t="n"/>
-      <c r="AE6" s="41" t="n"/>
-      <c r="AF6" s="41" t="n"/>
-      <c r="AG6" s="41" t="n"/>
-      <c r="AH6" s="41" t="n"/>
-      <c r="AI6" s="41" t="n"/>
-      <c r="AJ6" s="41" t="n"/>
-      <c r="AK6" s="41" t="n"/>
-      <c r="AL6" s="41" t="n"/>
-      <c r="AM6" s="41" t="n"/>
-      <c r="AN6" s="41" t="n"/>
-      <c r="AO6" s="41" t="n"/>
-      <c r="AP6" s="41" t="n"/>
-      <c r="AQ6" s="41" t="n"/>
-      <c r="AR6" s="41" t="n"/>
-      <c r="AS6" s="41" t="n"/>
-      <c r="AT6" s="41" t="n"/>
-      <c r="AU6" s="39" t="n"/>
+      <c r="D6" s="42" t="n"/>
+      <c r="E6" s="42" t="n"/>
+      <c r="F6" s="42" t="n"/>
+      <c r="G6" s="42" t="n"/>
+      <c r="H6" s="42" t="n"/>
+      <c r="I6" s="42" t="n"/>
+      <c r="J6" s="42" t="n"/>
+      <c r="K6" s="42" t="n"/>
+      <c r="L6" s="42" t="n"/>
+      <c r="M6" s="42" t="n"/>
+      <c r="N6" s="42" t="n"/>
+      <c r="O6" s="42" t="n"/>
+      <c r="P6" s="42" t="n"/>
+      <c r="Q6" s="42" t="n"/>
+      <c r="R6" s="42" t="n"/>
+      <c r="S6" s="42" t="n"/>
+      <c r="T6" s="42" t="n"/>
+      <c r="U6" s="42" t="n"/>
+      <c r="V6" s="42" t="n"/>
+      <c r="W6" s="42" t="n"/>
+      <c r="X6" s="42" t="n"/>
+      <c r="Y6" s="42" t="n"/>
+      <c r="Z6" s="42" t="n"/>
+      <c r="AA6" s="42" t="n"/>
+      <c r="AB6" s="42" t="n"/>
+      <c r="AC6" s="42" t="n"/>
+      <c r="AD6" s="42" t="n"/>
+      <c r="AE6" s="42" t="n"/>
+      <c r="AF6" s="42" t="n"/>
+      <c r="AG6" s="42" t="n"/>
+      <c r="AH6" s="42" t="n"/>
+      <c r="AI6" s="42" t="n"/>
+      <c r="AJ6" s="42" t="n"/>
+      <c r="AK6" s="42" t="n"/>
+      <c r="AL6" s="42" t="n"/>
+      <c r="AM6" s="42" t="n"/>
+      <c r="AN6" s="42" t="n"/>
+      <c r="AO6" s="42" t="n"/>
+      <c r="AP6" s="42" t="n"/>
+      <c r="AQ6" s="42" t="n"/>
+      <c r="AR6" s="42" t="n"/>
+      <c r="AS6" s="42" t="n"/>
+      <c r="AT6" s="42" t="n"/>
+      <c r="AU6" s="40" t="n"/>
     </row>
     <row r="7" ht="126" customHeight="1">
-      <c r="A7" s="42" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="39" t="n"/>
+      <c r="B7" s="40" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -7664,80 +7664,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="inlineStr">
+      <c r="A3" s="46" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="46" t="inlineStr">
+      <c r="B3" s="40" t="n"/>
+      <c r="C3" s="47" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="41" t="n"/>
-      <c r="E3" s="41" t="n"/>
-      <c r="F3" s="41" t="n"/>
-      <c r="G3" s="41" t="n"/>
-      <c r="H3" s="41" t="n"/>
-      <c r="I3" s="41" t="n"/>
-      <c r="J3" s="41" t="n"/>
-      <c r="K3" s="41" t="n"/>
-      <c r="L3" s="41" t="n"/>
-      <c r="M3" s="41" t="n"/>
-      <c r="N3" s="39" t="n"/>
+      <c r="D3" s="42" t="n"/>
+      <c r="E3" s="42" t="n"/>
+      <c r="F3" s="42" t="n"/>
+      <c r="G3" s="42" t="n"/>
+      <c r="H3" s="42" t="n"/>
+      <c r="I3" s="42" t="n"/>
+      <c r="J3" s="42" t="n"/>
+      <c r="K3" s="42" t="n"/>
+      <c r="L3" s="42" t="n"/>
+      <c r="M3" s="42" t="n"/>
+      <c r="N3" s="40" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="44" t="inlineStr">
+      <c r="A4" s="45" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="47" t="inlineStr">
+      <c r="B4" s="40" t="n"/>
+      <c r="C4" s="48" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="47" t="inlineStr">
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="48" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="47" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="48" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="47" t="inlineStr">
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="48" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="47" t="inlineStr">
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="48" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="47" t="inlineStr">
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="48" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="39" t="n"/>
+      <c r="N4" s="40" t="n"/>
     </row>
     <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="44" t="inlineStr">
+      <c r="A5" s="45" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
+      <c r="B5" s="40" t="n"/>
       <c r="C5" s="20" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -9279,10 +9279,10 @@
         <v>51107997.97534391</v>
       </c>
       <c r="C2" s="33" t="n">
-        <v>0</v>
+        <v>28741976.90627034</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>35916454.70119575</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>29048025.70208031</v>

--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -49979,7 +49979,7 @@
         <v>1091007938.798765</v>
       </c>
       <c r="AA2" t="n">
-        <v>1071880.978011147</v>
+        <v>162689731.4930479</v>
       </c>
       <c r="AB2" t="n">
         <v>516376065.597792</v>
@@ -50018,10 +50018,10 @@
         <v>13782461665.4358</v>
       </c>
       <c r="AN2" t="n">
-        <v>177040000</v>
+        <v>3028427394.059361</v>
       </c>
       <c r="AO2" t="n">
-        <v>9574038000</v>
+        <v>10601833431.54424</v>
       </c>
       <c r="AP2" t="n">
         <v>739481000</v>
